--- a/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Stable Angina.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Stable Angina.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Progressive dysphagia for solids and liquids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia is a common symptom in patients with Type 2 Achalasia, which is associated with CREST syndrome.</t>
+          <t>Dysphagia is a common symptom in Type 2 Achalasia, especially when it progresses from solids to liquids.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chest pain on exertion</t>
+          <t>Chest pain with exertion</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Chest pain that occurs with physical activity is a classic symptom of stable angina.</t>
+          <t>Chest pain that occurs with exertion is a classic symptom of Stable Angina.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Skin changes (sclerodactyly or telangiectasia)</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Skin changes such as sclerodactyly or telangiectasia are characteristic of CREST syndrome.</t>
+          <t>Raynaud's phenomenon is a hallmark of CREST syndrome, which is not associated with Stable Angina.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Relief of symptoms with rest or nitroglycerin</t>
+          <t>Pain relief with rest or nitroglycerin</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Stable angina symptoms typically improve with rest or nitroglycerin, distinguishing it from achalasia symptoms.</t>
+          <t>Pain relief with rest or nitroglycerin is characteristic of Stable Angina.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gastroesophageal reflux symptoms</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gastroesophageal reflux is often reported in patients with achalasia, particularly in the context of CREST syndrome.</t>
+          <t>Sclerodactyly is specific to CREST syndrome and not seen in Stable Angina.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of coronary artery disease</t>
+          <t>Predictable pattern of chest pain</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A history of coronary artery disease is a strong indicator for stable angina.</t>
+          <t>A predictable pattern of chest pain is typical for Stable Angina.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a hallmark of CREST syndrome and is less common in stable angina.</t>
+          <t>Telangiectasia is a feature of CREST syndrome, absent in Stable Angina.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Shortness of breath with exertion</t>
+          <t>No dysphagia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Shortness of breath during physical activity is commonly associated with stable angina.</t>
+          <t>Absence of dysphagia helps rule out Type 2 Achalasia, supporting Stable Angina.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fatigue and weakness</t>
+          <t>Esophageal motility issues</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fatigue and weakness can be more pronounced in patients with systemic involvement in CREST syndrome.</t>
+          <t>Esophageal motility issues are indicative of Type 2 Achalasia, not present in Stable Angina.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Radiation of pain to the arm or jaw</t>
+          <t>No skin changes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Pain that radiates to the arm or jaw is a classic feature of stable angina.</t>
+          <t>Absence of skin changes like sclerodactyly or telangiectasia supports Stable Angina over CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -613,12 +613,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of sclerodactyly</t>
+          <t>History of scleroderma</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a hallmark of CREST syndrome, indicating skin involvement characteristic of this condition.</t>
+          <t>Scleroderma is a key component of CREST syndrome, which is not associated with Stable Angina.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -628,19 +628,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Coronary artery disease is a primary risk factor for Stable Angina, which is not associated with CREST syndrome.</t>
+          <t>Coronary artery disease is a direct cause of Stable Angina.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of esophageal dysmotility</t>
+          <t>History of esophageal motility disorder</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Esophageal dysmotility is commonly associated with Type 2 Achalasia and CREST syndrome, distinguishing it from Stable Angina.</t>
+          <t>Type 2 Achalasia is an esophageal motility disorder, commonly seen in CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -650,73 +650,73 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A past myocardial infarction is a strong indicator of Stable Angina, distinguishing it from CREST syndrome.</t>
+          <t>A past myocardial infarction is a strong risk factor for Stable Angina.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of pulmonary hypertension</t>
+          <t>History of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension can occur in CREST syndrome, whereas it is not a typical finding in Stable Angina.</t>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Current use of nitrates</t>
+          <t>Use of anti-anginal medications</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Nitrates are commonly prescribed for Stable Angina to relieve chest pain, which is not a treatment for CREST syndrome.</t>
+          <t>Medications like nitrates are used specifically for angina management.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>History of telangiectasia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a classic symptom of CREST syndrome, which is not present in Stable Angina.</t>
+          <t>Telangiectasia is a characteristic finding in CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of hypertension</t>
+          <t>History of hyperlipidemia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hypertension is a common risk factor for Stable Angina, whereas it is not specifically linked to CREST syndrome.</t>
+          <t>Hyperlipidemia is a risk factor for coronary artery disease and Stable Angina.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of gastrointestinal reflux disease (GERD)</t>
+          <t>History of calcinosis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GERD is often seen in patients with esophageal involvement in CREST syndrome, unlike in Stable Angina.</t>
+          <t>Calcinosis is part of the CREST syndrome acronym and not associated with Stable Angina.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of hyperlipidemia</t>
+          <t>History of hypertension</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hyperlipidemia is a significant risk factor for cardiovascular diseases, including Stable Angina, but not for CREST syndrome.</t>
+          <t>Hypertension is a common risk factor for Stable Angina.</t>
         </is>
       </c>
     </row>
@@ -769,51 +769,51 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A family history of autoimmune diseases is more common in patients with CREST syndrome, indicating a genetic predisposition.</t>
+          <t>Autoimmune diseases, including CREST syndrome, often have a genetic component and may run in families.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of smoking</t>
+          <t>Family history of coronary artery disease</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Smoking is a significant risk factor for cardiovascular diseases, including stable angina.</t>
+          <t>Coronary artery disease, which can lead to stable angina, often runs in families.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Occupational exposure to silica or other environmental toxins</t>
+          <t>History of scleroderma in family</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Certain occupations with exposure to silica are associated with increased risk of scleroderma, which includes CREST syndrome.</t>
+          <t>Scleroderma, part of CREST syndrome, can have familial links, increasing the likelihood of CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Family history of coronary artery disease</t>
+          <t>History of smoking</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A family history of coronary artery disease is a strong indicator of risk for stable angina.</t>
+          <t>Smoking is a significant risk factor for coronary artery disease and stable angina.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>Occupational exposure to silica dust</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a common symptom in CREST syndrome, indicating vascular involvement.</t>
+          <t>Exposure to silica dust is a known risk factor for scleroderma, which is part of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -823,51 +823,51 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A sedentary lifestyle is a known risk factor for developing cardiovascular conditions, including stable angina.</t>
+          <t>A sedentary lifestyle increases the risk of coronary artery disease, leading to stable angina.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lifestyle factors indicating chronic stress or autoimmune triggers</t>
+          <t>Female gender</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chronic stress or exposure to autoimmune triggers can be more prevalent in patients with CREST syndrome.</t>
+          <t>CREST syndrome is more prevalent in females compared to males.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Obesity in family history</t>
+          <t>High-fat diet</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Obesity is a risk factor for cardiovascular diseases and can indicate a higher likelihood of stable angina.</t>
+          <t>A diet high in fats is a risk factor for coronary artery disease, which can cause stable angina.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of esophageal motility disorders in family</t>
+          <t>Family history of esophageal motility disorders</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A family history of esophageal motility disorders can suggest a genetic link to Type 2 Achalasia, which is associated with CREST syndrome.</t>
+          <t>Type 2 Achalasia, part of CREST syndrome, may have a genetic predisposition.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of hypertension</t>
+          <t>Male gender</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hypertension is a major risk factor for stable angina and is often present in patients with cardiovascular issues.</t>
+          <t>Stable angina is more common in males compared to females.</t>
         </is>
       </c>
     </row>
@@ -915,12 +915,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Skin changes such as sclerodactyly</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a hallmark of CREST syndrome and is not present in stable angina.</t>
+          <t>Thickening and tightening of the skin on the fingers is characteristic of CREST syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Chest pain on exertion is a classic symptom of stable angina.</t>
+          <t>Stable Angina is characterized by chest pain that occurs with physical activity.</t>
         </is>
       </c>
     </row>
@@ -942,83 +942,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasia is commonly seen in CREST syndrome and is absent in stable angina.</t>
+          <t>Visible small blood vessels on the skin are common in CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal physical exam findings in skin and extremities</t>
+          <t>Normal skin examination</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Normal findings suggest the absence of CREST syndrome features.</t>
+          <t>Absence of skin changes such as sclerodactyly or telangiectasia suggests Stable Angina over CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysphagia is associated with Type 2 Achalasia, which is part of CREST syndrome.</t>
+          <t>Calcium deposits under the skin are indicative of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Stable vital signs</t>
+          <t>No esophageal symptoms</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Stable vital signs are more indicative of stable angina than the systemic issues seen in CREST syndrome.</t>
+          <t>Lack of esophageal dysmotility or swallowing difficulties is more consistent with Stable Angina.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension can occur in CREST syndrome but is not a feature of stable angina.</t>
+          <t>Color changes in the fingers upon cold exposure or stress are typical in CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No signs of esophageal dilation</t>
+          <t>Normal finger color</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Esophageal dilation is associated with achalasia, which is not present in stable angina.</t>
+          <t>Absence of Raynaud's phenomenon supports Stable Angina over CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Calcinosis cutis</t>
+          <t>Esophageal dysmotility</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Calcinosis cutis is a specific finding in CREST syndrome and not seen in stable angina.</t>
+          <t>Difficulty swallowing due to esophageal dysfunction is associated with Type 2 Achalasia in CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No evidence of heart failure</t>
+          <t>No calcinosis</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of heart failure signs supports stable angina over systemic issues in CREST syndrome.</t>
+          <t>Lack of calcium deposits under the skin is indicative of Stable Angina rather than CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Esophageal manometry showing elevated resting lower esophageal sphincter (LES) pressure</t>
+          <t>Esophageal manometry showing Type 2 Achalasia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is characteristic of Type 2 Achalasia, which is associated with CREST syndrome.</t>
+          <t>Type 2 Achalasia is characterized by impaired relaxation of the lower esophageal sphincter and esophageal aperistalsis, which is not seen in Stable Angina.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Stress test showing inducible ischemia</t>
+          <t>Electrocardiogram (ECG) showing ST-segment depression</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Inducible ischemia on a stress test is a hallmark of Stable Angina.</t>
+          <t>ST-segment depression is indicative of myocardial ischemia, which is characteristic of Stable Angina.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barium swallow study demonstrating dilated esophagus with stasis</t>
+          <t>Antinuclear antibody (ANA) positivity</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>This imaging finding is indicative of achalasia, which is commonly seen in CREST syndrome.</t>
+          <t>ANA positivity is common in CREST syndrome, which is an autoimmune condition, and not typically seen in Stable Angina.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Coronary angiography revealing significant coronary artery stenosis</t>
+          <t>Positive exercise stress test</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Significant stenosis is a direct indicator of coronary artery disease, leading to Stable Angina.</t>
+          <t>A positive stress test indicates myocardial ischemia, which is a hallmark of Stable Angina.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Antinuclear antibodies (ANA) positivity</t>
+          <t>High-resolution esophageal manometry</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ANA positivity is often found in autoimmune conditions like CREST syndrome.</t>
+          <t>This test can confirm the presence of esophageal motility disorders like Type 2 Achalasia, which are not present in Stable Angina.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Elevated troponin levels during chest pain episode</t>
+          <t>Coronary angiography showing coronary artery stenosis</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Elevated troponin indicates myocardial injury, which is more consistent with angina than achalasia.</t>
+          <t>Coronary artery stenosis is a direct cause of Stable Angina and not related to CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Presence of anti-centromere antibodies</t>
+          <t>Barium swallow showing 'bird-beak' appearance</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anti-centromere antibodies are specifically associated with CREST syndrome.</t>
+          <t>The 'bird-beak' appearance is indicative of achalasia, a feature not associated with Stable Angina.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal esophageal motility studies</t>
+          <t>Troponin levels within normal range</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal motility studies would argue against achalasia and favor Stable Angina.</t>
+          <t>Normal troponin levels can help differentiate Stable Angina from acute coronary syndromes, but are not relevant to CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chest X-ray showing dilated esophagus</t>
+          <t>Pulmonary function tests showing restrictive pattern</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A dilated esophagus on imaging supports the diagnosis of achalasia, which is linked to CREST syndrome.</t>
+          <t>A restrictive pattern may be seen in CREST syndrome due to pulmonary involvement, unlike in Stable Angina.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Electrocardiogram (ECG) changes during episodes of chest pain</t>
+          <t>Normal esophageal manometry</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ECG changes such as ST-segment depression are indicative of ischemia, supporting Stable Angina.</t>
+          <t>Normal esophageal manometry would rule out achalasia, supporting a diagnosis of Stable Angina over CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
     </row>
